--- a/benchmarks/pli-manager-graph/33ee5b8 59338de a397672/dfd_ncvoter_charts.xlsx
+++ b/benchmarks/pli-manager-graph/33ee5b8 59338de a397672/dfd_ncvoter_charts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\git\pli-benchmarks\benchmarks\pli-manager-graph\33ee5b8 59338de\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\git\pli-benchmarks\benchmarks\pli-manager-graph\33ee5b8 59338de a397672\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
     <sheet name="chart speedup (outdated)" sheetId="7" r:id="rId5"/>
     <sheet name="speedup copy (outdated)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1144,22 +1144,22 @@
     <t>Max of mean</t>
   </si>
   <si>
-    <t>20 plis cached</t>
+    <t>20 PLIs Cached</t>
   </si>
   <si>
-    <t>40 plis cached</t>
+    <t>40 PLIs Cached</t>
   </si>
   <si>
-    <t>80 plis cached</t>
+    <t>80 PLIs Cached</t>
   </si>
   <si>
-    <t>160 plis cached</t>
+    <t>160 PLIs Cached</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2499,7 +2499,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20 plis cached</c:v>
+                  <c:v>20 PLIs Cached</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2618,6 +2618,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-712E-4EAA-8029-F853FB3FAC74}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2628,7 +2633,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40 plis cached</c:v>
+                  <c:v>40 PLIs Cached</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2747,6 +2752,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-712E-4EAA-8029-F853FB3FAC74}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2757,7 +2767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80 plis cached</c:v>
+                  <c:v>80 PLIs Cached</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2876,6 +2886,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-712E-4EAA-8029-F853FB3FAC74}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2886,7 +2901,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>160 plis cached</c:v>
+                  <c:v>160 PLIs Cached</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3005,6 +3020,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-712E-4EAA-8029-F853FB3FAC74}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3076,7 +3096,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>#columns</a:t>
+                  <a:t>#Columns</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3198,7 +3218,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>execution time in s</a:t>
+                  <a:t>Execution Time in s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3341,7 +3361,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4009,6 +4029,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C01D-45FB-B04B-4F2BF00E8409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4106,6 +4131,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C01D-45FB-B04B-4F2BF00E8409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4203,6 +4233,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C01D-45FB-B04B-4F2BF00E8409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4300,6 +4335,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C01D-45FB-B04B-4F2BF00E8409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4376,7 +4416,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4500,7 +4539,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4575,7 +4613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5753,7 +5790,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5776,7 +5813,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6081841"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9404,7 +9441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A1:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9589,14 +9626,14 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="12">
-        <item n="20 plis cached" x="0"/>
-        <item n="40 plis cached" x="1"/>
+        <item n="20 PLIs Cached" x="0"/>
+        <item n="40 PLIs Cached" x="1"/>
         <item h="1" x="2"/>
-        <item n="80 plis cached" x="3"/>
+        <item n="80 PLIs Cached" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
-        <item n="160 plis cached" x="7"/>
+        <item n="160 PLIs Cached" x="7"/>
         <item h="1" x="8"/>
         <item h="1" x="9"/>
         <item h="1" x="10"/>
@@ -46913,7 +46950,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/benchmarks/pli-manager-graph/33ee5b8 59338de a397672/dfd_ncvoter_charts.xlsx
+++ b/benchmarks/pli-manager-graph/33ee5b8 59338de a397672/dfd_ncvoter_charts.xlsx
@@ -2433,9 +2433,9 @@
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="70AD47"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2446,11 +2446,11 @@
           <c:size val="4"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="70AD47"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -2462,7 +2462,9 @@
         <c:spPr>
           <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4">
+                <a:lumMod val="75000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2473,11 +2475,15 @@
           <c:size val="4"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="4472C4">
+                <a:lumMod val="75000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -2773,9 +2779,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2786,11 +2792,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="70AD47"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2909,7 +2915,9 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2920,11 +2928,15 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="4472C4">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
